--- a/biology/Zoologie/Élénie_verdâtre/Élénie_verdâtre.xlsx
+++ b/biology/Zoologie/Élénie_verdâtre/Élénie_verdâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_verd%C3%A2tre</t>
+          <t>Élénie_verdâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myiopagis viridicata
 L'Élénie verdâtre (Myiopagis viridicata) est une espèce de passereaux de la famille des Tyrannidae (Tyrannidés en français).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_verd%C3%A2tre</t>
+          <t>Élénie_verdâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_verd%C3%A2tre</t>
+          <t>Élénie_verdâtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Élénie verdâtre se rencontre du sud-est à l'ouest du Mexique ainsi que dans toute l'Amérique centrale, de la Colombie au Venezuela, à l'ouest de l'Équateur, au Pérou, en Bolivie, au Paraguay, dans de nombreux états du Brésil jusqu'à l'extrême nord de l'Argentine ainsi que dans l'extrême sud-ouest du Guyana. 
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_verd%C3%A2tre</t>
+          <t>Élénie_verdâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,9 +585,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fréquente les plaines humides au bord des forêts ainsi que les régions boisées dégagées[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fréquente les plaines humides au bord des forêts ainsi que les régions boisées dégagées.
 </t>
         </is>
       </c>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_verd%C3%A2tre</t>
+          <t>Élénie_verdâtre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des dix sous-espèces suivantes (ordre phylogénique) :
 Myiopagis viridicata jaliscensis Nelson, 1900 ;
